--- a/datenRF4/SFU/i = 23,28 - Abtriebswelle 14 - Geber AV Y2/L3_23,28_14_AVY2.xlsx
+++ b/datenRF4/SFU/i = 23,28 - Abtriebswelle 14 - Geber AV Y2/L3_23,28_14_AVY2.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/79280b356d20d493/Arbeit/2_Arbeitsergebnisse/2_Strukturierung_Labeling der Daten im Assistenzsystem/Reifegradstufen/Reifegradstufen Synchron ^M Fußgehäuse/i = 23^J28 - Abtriebswelle 14 - Geber AV Y2/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="273" documentId="13_ncr:1_{90169E0A-18A4-4BE1-985F-26552B41A11F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{ADCCEC94-E105-4B87-A358-6F421B61E44D}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{866BF88D-C05E-4884-BF71-5CC7F8CCDE18}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -464,11 +458,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -653,7 +647,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -691,36 +685,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -772,6 +736,48 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -833,7 +839,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -885,7 +891,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1079,78 +1085,78 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93DA643C-8A92-4996-85A3-3168850BCFB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="8" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E28" sqref="E28"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="4" width="22.28515625" customWidth="1"/>
-    <col min="5" max="5" width="32.85546875" customWidth="1"/>
-    <col min="6" max="7" width="22.28515625" customWidth="1"/>
+    <col min="1" max="4" width="22.26953125" customWidth="1"/>
+    <col min="5" max="5" width="32.81640625" customWidth="1"/>
+    <col min="6" max="7" width="22.26953125" customWidth="1"/>
     <col min="10" max="10" width="46" customWidth="1"/>
-    <col min="11" max="11" width="40.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" customWidth="1"/>
-    <col min="13" max="14" width="18.5703125" customWidth="1"/>
-    <col min="15" max="15" width="17.140625" customWidth="1"/>
-    <col min="16" max="16" width="19.5703125" customWidth="1"/>
-    <col min="17" max="17" width="23.7109375" customWidth="1"/>
-    <col min="18" max="18" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="40.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7265625" customWidth="1"/>
+    <col min="13" max="14" width="18.54296875" customWidth="1"/>
+    <col min="15" max="15" width="17.1796875" customWidth="1"/>
+    <col min="16" max="16" width="19.54296875" customWidth="1"/>
+    <col min="17" max="17" width="23.7265625" customWidth="1"/>
+    <col min="18" max="18" width="15.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:19" ht="21">
+      <c r="A1" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="32" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="27" t="s">
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="28"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="56"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="31" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="30" t="s">
+      <c r="D2" s="59"/>
+      <c r="E2" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="30"/>
+      <c r="F2" s="58"/>
       <c r="G2" s="26"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
@@ -1165,7 +1171,7 @@
       <c r="R2" s="13"/>
       <c r="S2" s="4"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="15" thickBot="1">
       <c r="A3" s="7" t="s">
         <v>72</v>
       </c>
@@ -1224,14 +1230,14 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="38"/>
+    <row r="4" spans="1:19" ht="72.5">
+      <c r="A4" s="36"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="28"/>
       <c r="H4" s="15">
         <v>0</v>
       </c>
@@ -1259,7 +1265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="48" customHeight="1" thickBot="1">
       <c r="A5" s="14"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -1288,26 +1294,26 @@
       <c r="R5" s="15"/>
       <c r="S5" s="17"/>
     </row>
-    <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="46">
-        <v>1</v>
-      </c>
-      <c r="B6" s="58">
-        <v>1</v>
-      </c>
-      <c r="C6" s="47">
-        <v>1</v>
-      </c>
-      <c r="D6" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" s="47" t="s">
+    <row r="6" spans="1:19" ht="29">
+      <c r="A6" s="36">
+        <v>1</v>
+      </c>
+      <c r="B6" s="48">
+        <v>1</v>
+      </c>
+      <c r="C6" s="37">
+        <v>1</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="F6" s="59" t="s">
+      <c r="F6" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="G6" s="39"/>
+      <c r="G6" s="29"/>
       <c r="H6" s="15">
         <v>1</v>
       </c>
@@ -1339,11 +1345,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19">
       <c r="A7" s="14">
         <v>5</v>
       </c>
-      <c r="B7" s="48">
+      <c r="B7" s="38">
         <v>1</v>
       </c>
       <c r="C7" s="15">
@@ -1355,10 +1361,10 @@
       <c r="E7" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="G7" s="40"/>
+      <c r="G7" s="30"/>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
@@ -1372,11 +1378,11 @@
       <c r="R7" s="15"/>
       <c r="S7" s="17"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="A8" s="14">
         <v>6</v>
       </c>
-      <c r="B8" s="49">
+      <c r="B8" s="39">
         <v>2</v>
       </c>
       <c r="C8" s="15">
@@ -1388,10 +1394,10 @@
       <c r="E8" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="F8" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="G8" s="40"/>
+      <c r="G8" s="30"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
@@ -1405,11 +1411,11 @@
       <c r="R8" s="15"/>
       <c r="S8" s="17"/>
     </row>
-    <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="15" thickBot="1">
       <c r="A9" s="14">
         <v>7</v>
       </c>
-      <c r="B9" s="49">
+      <c r="B9" s="39">
         <v>2</v>
       </c>
       <c r="C9" s="15">
@@ -1421,10 +1427,10 @@
       <c r="E9" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="G9" s="40"/>
+      <c r="G9" s="30"/>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
@@ -1438,24 +1444,26 @@
       <c r="R9" s="15"/>
       <c r="S9" s="17"/>
     </row>
-    <row r="10" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="46">
-        <v>1</v>
-      </c>
-      <c r="B10" s="58"/>
-      <c r="C10" s="47">
-        <v>1</v>
-      </c>
-      <c r="D10" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10" s="61" t="s">
+    <row r="10" spans="1:19" ht="29.5" thickBot="1">
+      <c r="A10" s="36">
+        <v>1</v>
+      </c>
+      <c r="B10" s="67">
+        <v>3</v>
+      </c>
+      <c r="C10" s="37">
+        <v>1</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="47" t="s">
+      <c r="F10" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="38">
+      <c r="G10" s="28">
         <v>22132</v>
       </c>
       <c r="H10" s="15"/>
@@ -1471,14 +1479,14 @@
       <c r="R10" s="15"/>
       <c r="S10" s="17"/>
     </row>
-    <row r="11" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="38"/>
+    <row r="11" spans="1:19" ht="29">
+      <c r="A11" s="36"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="28"/>
       <c r="H11" s="15">
         <v>2</v>
       </c>
@@ -1500,7 +1508,7 @@
       <c r="R11" s="15"/>
       <c r="S11" s="17"/>
     </row>
-    <row r="12" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="29.5" thickBot="1">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1529,11 +1537,11 @@
       <c r="R12" s="15"/>
       <c r="S12" s="17"/>
     </row>
-    <row r="13" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="43.5">
       <c r="A13" s="14">
         <v>1</v>
       </c>
-      <c r="B13" s="48">
+      <c r="B13" s="38">
         <v>1</v>
       </c>
       <c r="C13" s="15">
@@ -1545,10 +1553,10 @@
       <c r="E13" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="F13" s="37" t="s">
+      <c r="F13" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="G13" s="40"/>
+      <c r="G13" s="30"/>
       <c r="H13" s="15">
         <v>3</v>
       </c>
@@ -1580,11 +1588,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19">
       <c r="A14" s="14">
         <v>5</v>
       </c>
-      <c r="B14" s="48">
+      <c r="B14" s="38">
         <v>1</v>
       </c>
       <c r="C14" s="15">
@@ -1596,10 +1604,10 @@
       <c r="E14" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="37" t="s">
+      <c r="F14" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="40"/>
+      <c r="G14" s="30"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
@@ -1613,11 +1621,11 @@
       <c r="R14" s="15"/>
       <c r="S14" s="17"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19">
       <c r="A15" s="14">
         <v>6</v>
       </c>
-      <c r="B15" s="49">
+      <c r="B15" s="39">
         <v>2</v>
       </c>
       <c r="C15" s="15">
@@ -1629,10 +1637,10 @@
       <c r="E15" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="F15" s="37" t="s">
+      <c r="F15" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="G15" s="40"/>
+      <c r="G15" s="30"/>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
@@ -1646,11 +1654,11 @@
       <c r="R15" s="15"/>
       <c r="S15" s="17"/>
     </row>
-    <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="15" thickBot="1">
       <c r="A16" s="1">
         <v>7</v>
       </c>
-      <c r="B16" s="60">
+      <c r="B16" s="50">
         <v>2</v>
       </c>
       <c r="C16" s="2">
@@ -1662,10 +1670,10 @@
       <c r="E16" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F16" s="62" t="s">
+      <c r="F16" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="G16" s="42"/>
+      <c r="G16" s="32"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
@@ -1679,11 +1687,13 @@
       <c r="R16" s="15"/>
       <c r="S16" s="17"/>
     </row>
-    <row r="17" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="29">
       <c r="A17" s="14">
         <v>1</v>
       </c>
-      <c r="B17" s="48"/>
+      <c r="B17" s="65">
+        <v>3</v>
+      </c>
       <c r="C17" s="15">
         <v>1</v>
       </c>
@@ -1712,11 +1722,13 @@
       <c r="R17" s="15"/>
       <c r="S17" s="17"/>
     </row>
-    <row r="18" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="29.5" thickBot="1">
       <c r="A18" s="14">
         <v>2</v>
       </c>
-      <c r="B18" s="49"/>
+      <c r="B18" s="65">
+        <v>3</v>
+      </c>
       <c r="C18" s="15">
         <v>4</v>
       </c>
@@ -1745,26 +1757,26 @@
       <c r="R18" s="15"/>
       <c r="S18" s="17"/>
     </row>
-    <row r="19" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="46">
-        <v>1</v>
-      </c>
-      <c r="B19" s="58">
-        <v>1</v>
-      </c>
-      <c r="C19" s="47">
-        <v>1</v>
-      </c>
-      <c r="D19" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" s="47" t="s">
+    <row r="19" spans="1:19" ht="43.5">
+      <c r="A19" s="36">
+        <v>1</v>
+      </c>
+      <c r="B19" s="48">
+        <v>1</v>
+      </c>
+      <c r="C19" s="37">
+        <v>1</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="F19" s="59" t="s">
+      <c r="F19" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="G19" s="39"/>
+      <c r="G19" s="29"/>
       <c r="H19" s="15">
         <v>4</v>
       </c>
@@ -1796,11 +1808,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19">
       <c r="A20" s="14">
         <v>5</v>
       </c>
-      <c r="B20" s="48">
+      <c r="B20" s="38">
         <v>1</v>
       </c>
       <c r="C20" s="15">
@@ -1812,10 +1824,10 @@
       <c r="E20" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="F20" s="37" t="s">
+      <c r="F20" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="G20" s="40"/>
+      <c r="G20" s="30"/>
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
@@ -1829,11 +1841,11 @@
       <c r="R20" s="15"/>
       <c r="S20" s="17"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19">
       <c r="A21" s="14">
         <v>6</v>
       </c>
-      <c r="B21" s="49">
+      <c r="B21" s="39">
         <v>2</v>
       </c>
       <c r="C21" s="15">
@@ -1845,10 +1857,10 @@
       <c r="E21" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="F21" s="37" t="s">
+      <c r="F21" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="G21" s="40"/>
+      <c r="G21" s="30"/>
       <c r="H21" s="15"/>
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
@@ -1862,11 +1874,11 @@
       <c r="R21" s="15"/>
       <c r="S21" s="17"/>
     </row>
-    <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="15" thickBot="1">
       <c r="A22" s="14">
         <v>7</v>
       </c>
-      <c r="B22" s="49">
+      <c r="B22" s="39">
         <v>2</v>
       </c>
       <c r="C22" s="15">
@@ -1878,10 +1890,10 @@
       <c r="E22" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="F22" s="37" t="s">
+      <c r="F22" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="G22" s="40"/>
+      <c r="G22" s="30"/>
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
       <c r="J22" s="15"/>
@@ -1895,24 +1907,26 @@
       <c r="R22" s="15"/>
       <c r="S22" s="17"/>
     </row>
-    <row r="23" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="46">
-        <v>1</v>
-      </c>
-      <c r="B23" s="58"/>
-      <c r="C23" s="47">
-        <v>1</v>
-      </c>
-      <c r="D23" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" s="61" t="s">
+    <row r="23" spans="1:19" ht="29">
+      <c r="A23" s="36">
+        <v>1</v>
+      </c>
+      <c r="B23" s="67">
+        <v>3</v>
+      </c>
+      <c r="C23" s="37">
+        <v>1</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="F23" s="47" t="s">
+      <c r="F23" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="G23" s="38">
+      <c r="G23" s="28">
         <v>22132</v>
       </c>
       <c r="H23" s="15"/>
@@ -1928,11 +1942,13 @@
       <c r="R23" s="15"/>
       <c r="S23" s="17"/>
     </row>
-    <row r="24" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="29.5" thickBot="1">
       <c r="A24" s="1">
         <v>2</v>
       </c>
-      <c r="B24" s="60"/>
+      <c r="B24" s="66">
+        <v>3</v>
+      </c>
       <c r="C24" s="2">
         <v>4</v>
       </c>
@@ -1961,7 +1977,7 @@
       <c r="R24" s="15"/>
       <c r="S24" s="17"/>
     </row>
-    <row r="25" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="44" thickBot="1">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -1990,26 +2006,26 @@
       <c r="R25" s="15"/>
       <c r="S25" s="17"/>
     </row>
-    <row r="26" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="46">
-        <v>1</v>
-      </c>
-      <c r="B26" s="58">
-        <v>1</v>
-      </c>
-      <c r="C26" s="47">
-        <v>1</v>
-      </c>
-      <c r="D26" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="E26" s="47" t="s">
+    <row r="26" spans="1:19" ht="43.5">
+      <c r="A26" s="36">
+        <v>1</v>
+      </c>
+      <c r="B26" s="48">
+        <v>1</v>
+      </c>
+      <c r="C26" s="37">
+        <v>1</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="F26" s="59" t="s">
+      <c r="F26" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="G26" s="39"/>
+      <c r="G26" s="29"/>
       <c r="H26" s="15">
         <v>5</v>
       </c>
@@ -2043,11 +2059,11 @@
       </c>
       <c r="S26" s="17"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19">
       <c r="A27" s="14">
         <v>5</v>
       </c>
-      <c r="B27" s="48">
+      <c r="B27" s="38">
         <v>1</v>
       </c>
       <c r="C27" s="15">
@@ -2059,10 +2075,10 @@
       <c r="E27" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="F27" s="37" t="s">
+      <c r="F27" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="G27" s="40"/>
+      <c r="G27" s="30"/>
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
       <c r="J27" s="15"/>
@@ -2076,11 +2092,11 @@
       <c r="R27" s="15"/>
       <c r="S27" s="17"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19">
       <c r="A28" s="14">
         <v>6</v>
       </c>
-      <c r="B28" s="49">
+      <c r="B28" s="39">
         <v>2</v>
       </c>
       <c r="C28" s="15">
@@ -2092,10 +2108,10 @@
       <c r="E28" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="F28" s="37" t="s">
+      <c r="F28" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="G28" s="40"/>
+      <c r="G28" s="30"/>
       <c r="H28" s="15"/>
       <c r="I28" s="15"/>
       <c r="J28" s="15"/>
@@ -2109,11 +2125,11 @@
       <c r="R28" s="15"/>
       <c r="S28" s="17"/>
     </row>
-    <row r="29" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="15" thickBot="1">
       <c r="A29" s="14">
         <v>7</v>
       </c>
-      <c r="B29" s="49">
+      <c r="B29" s="39">
         <v>2</v>
       </c>
       <c r="C29" s="15">
@@ -2125,10 +2141,10 @@
       <c r="E29" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="F29" s="37" t="s">
+      <c r="F29" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="G29" s="40"/>
+      <c r="G29" s="30"/>
       <c r="H29" s="15"/>
       <c r="I29" s="15"/>
       <c r="J29" s="15"/>
@@ -2142,24 +2158,26 @@
       <c r="R29" s="15"/>
       <c r="S29" s="17"/>
     </row>
-    <row r="30" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="51">
-        <v>1</v>
-      </c>
-      <c r="B30" s="52"/>
-      <c r="C30" s="53">
-        <v>1</v>
-      </c>
-      <c r="D30" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="E30" s="64" t="s">
+    <row r="30" spans="1:19" ht="29.5" thickBot="1">
+      <c r="A30" s="41">
+        <v>1</v>
+      </c>
+      <c r="B30" s="68">
+        <v>3</v>
+      </c>
+      <c r="C30" s="43">
+        <v>1</v>
+      </c>
+      <c r="D30" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="F30" s="53" t="s">
+      <c r="F30" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="G30" s="41">
+      <c r="G30" s="31">
         <v>22132</v>
       </c>
       <c r="H30" s="15"/>
@@ -2175,11 +2193,13 @@
       <c r="R30" s="15"/>
       <c r="S30" s="17"/>
     </row>
-    <row r="31" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="29.5" thickBot="1">
       <c r="A31" s="1">
         <v>2</v>
       </c>
-      <c r="B31" s="60"/>
+      <c r="B31" s="66">
+        <v>3</v>
+      </c>
       <c r="C31" s="2">
         <v>4</v>
       </c>
@@ -2208,7 +2228,7 @@
       <c r="R31" s="15"/>
       <c r="S31" s="17"/>
     </row>
-    <row r="32" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="29.5" thickBot="1">
       <c r="A32" s="14"/>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
@@ -2237,26 +2257,26 @@
       <c r="R32" s="15"/>
       <c r="S32" s="17"/>
     </row>
-    <row r="33" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="46">
-        <v>1</v>
-      </c>
-      <c r="B33" s="58">
-        <v>1</v>
-      </c>
-      <c r="C33" s="47">
-        <v>1</v>
-      </c>
-      <c r="D33" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="E33" s="47" t="s">
+    <row r="33" spans="1:19" ht="29">
+      <c r="A33" s="36">
+        <v>1</v>
+      </c>
+      <c r="B33" s="48">
+        <v>1</v>
+      </c>
+      <c r="C33" s="37">
+        <v>1</v>
+      </c>
+      <c r="D33" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="F33" s="59" t="s">
+      <c r="F33" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="G33" s="39"/>
+      <c r="G33" s="29"/>
       <c r="H33" s="15">
         <v>6</v>
       </c>
@@ -2288,11 +2308,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19">
       <c r="A34" s="14">
         <v>5</v>
       </c>
-      <c r="B34" s="48">
+      <c r="B34" s="38">
         <v>1</v>
       </c>
       <c r="C34" s="15">
@@ -2304,10 +2324,10 @@
       <c r="E34" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="F34" s="37" t="s">
+      <c r="F34" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="G34" s="40"/>
+      <c r="G34" s="30"/>
       <c r="H34" s="15"/>
       <c r="I34" s="15"/>
       <c r="J34" s="15"/>
@@ -2321,11 +2341,11 @@
       <c r="R34" s="15"/>
       <c r="S34" s="17"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19">
       <c r="A35" s="14">
         <v>6</v>
       </c>
-      <c r="B35" s="49">
+      <c r="B35" s="39">
         <v>2</v>
       </c>
       <c r="C35" s="15">
@@ -2337,10 +2357,10 @@
       <c r="E35" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="F35" s="37" t="s">
+      <c r="F35" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="G35" s="40"/>
+      <c r="G35" s="30"/>
       <c r="H35" s="15"/>
       <c r="I35" s="15"/>
       <c r="J35" s="15"/>
@@ -2354,11 +2374,11 @@
       <c r="R35" s="15"/>
       <c r="S35" s="17"/>
     </row>
-    <row r="36" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="15" thickBot="1">
       <c r="A36" s="14">
         <v>7</v>
       </c>
-      <c r="B36" s="49">
+      <c r="B36" s="39">
         <v>2</v>
       </c>
       <c r="C36" s="15">
@@ -2370,10 +2390,10 @@
       <c r="E36" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="F36" s="37" t="s">
+      <c r="F36" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="G36" s="40"/>
+      <c r="G36" s="30"/>
       <c r="H36" s="15"/>
       <c r="I36" s="15"/>
       <c r="J36" s="15"/>
@@ -2387,24 +2407,26 @@
       <c r="R36" s="15"/>
       <c r="S36" s="17"/>
     </row>
-    <row r="37" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="46">
-        <v>1</v>
-      </c>
-      <c r="B37" s="58"/>
-      <c r="C37" s="47">
-        <v>1</v>
-      </c>
-      <c r="D37" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="E37" s="61" t="s">
+    <row r="37" spans="1:19" ht="29">
+      <c r="A37" s="36">
+        <v>1</v>
+      </c>
+      <c r="B37" s="67">
+        <v>3</v>
+      </c>
+      <c r="C37" s="37">
+        <v>1</v>
+      </c>
+      <c r="D37" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="F37" s="47" t="s">
+      <c r="F37" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="G37" s="38">
+      <c r="G37" s="28">
         <v>22132</v>
       </c>
       <c r="H37" s="15"/>
@@ -2420,11 +2442,13 @@
       <c r="R37" s="15"/>
       <c r="S37" s="17"/>
     </row>
-    <row r="38" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="29.5" thickBot="1">
       <c r="A38" s="1">
         <v>2</v>
       </c>
-      <c r="B38" s="60"/>
+      <c r="B38" s="66">
+        <v>3</v>
+      </c>
       <c r="C38" s="2">
         <v>4</v>
       </c>
@@ -2453,14 +2477,14 @@
       <c r="R38" s="15"/>
       <c r="S38" s="17"/>
     </row>
-    <row r="39" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="15" thickBot="1">
       <c r="A39" s="14"/>
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
       <c r="F39" s="15"/>
-      <c r="G39" s="40"/>
+      <c r="G39" s="30"/>
       <c r="H39" s="15">
         <v>7</v>
       </c>
@@ -2482,26 +2506,26 @@
       <c r="R39" s="15"/>
       <c r="S39" s="17"/>
     </row>
-    <row r="40" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="46">
-        <v>1</v>
-      </c>
-      <c r="B40" s="58">
-        <v>1</v>
-      </c>
-      <c r="C40" s="47">
-        <v>1</v>
-      </c>
-      <c r="D40" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="E40" s="47" t="s">
+    <row r="40" spans="1:19" ht="29">
+      <c r="A40" s="36">
+        <v>1</v>
+      </c>
+      <c r="B40" s="48">
+        <v>1</v>
+      </c>
+      <c r="C40" s="37">
+        <v>1</v>
+      </c>
+      <c r="D40" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="E40" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="F40" s="59" t="s">
+      <c r="F40" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="G40" s="39"/>
+      <c r="G40" s="29"/>
       <c r="H40" s="15">
         <v>7</v>
       </c>
@@ -2533,11 +2557,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19">
       <c r="A41" s="14">
         <v>5</v>
       </c>
-      <c r="B41" s="48">
+      <c r="B41" s="38">
         <v>1</v>
       </c>
       <c r="C41" s="15">
@@ -2549,10 +2573,10 @@
       <c r="E41" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="F41" s="37" t="s">
+      <c r="F41" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="G41" s="40"/>
+      <c r="G41" s="30"/>
       <c r="H41" s="15"/>
       <c r="I41" s="15"/>
       <c r="J41" s="15"/>
@@ -2566,11 +2590,11 @@
       <c r="R41" s="15"/>
       <c r="S41" s="17"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19">
       <c r="A42" s="14">
         <v>6</v>
       </c>
-      <c r="B42" s="49">
+      <c r="B42" s="39">
         <v>2</v>
       </c>
       <c r="C42" s="15">
@@ -2582,10 +2606,10 @@
       <c r="E42" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="F42" s="37" t="s">
+      <c r="F42" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="G42" s="40"/>
+      <c r="G42" s="30"/>
       <c r="H42" s="15"/>
       <c r="I42" s="15"/>
       <c r="J42" s="15"/>
@@ -2599,11 +2623,11 @@
       <c r="R42" s="15"/>
       <c r="S42" s="17"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19">
       <c r="A43" s="14">
         <v>7</v>
       </c>
-      <c r="B43" s="49">
+      <c r="B43" s="39">
         <v>2</v>
       </c>
       <c r="C43" s="15">
@@ -2615,7 +2639,7 @@
       <c r="E43" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="F43" s="37" t="s">
+      <c r="F43" s="27" t="s">
         <v>86</v>
       </c>
       <c r="G43" s="17"/>
@@ -2632,11 +2656,11 @@
       <c r="R43" s="15"/>
       <c r="S43" s="17"/>
     </row>
-    <row r="44" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" ht="15" thickBot="1">
       <c r="A44" s="1">
         <v>8</v>
       </c>
-      <c r="B44" s="60">
+      <c r="B44" s="50">
         <v>2</v>
       </c>
       <c r="C44" s="2">
@@ -2645,10 +2669,10 @@
       <c r="D44" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E44" s="63" t="s">
+      <c r="E44" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="F44" s="62" t="s">
+      <c r="F44" s="52" t="s">
         <v>91</v>
       </c>
       <c r="G44" s="19"/>
@@ -2665,24 +2689,26 @@
       <c r="R44" s="15"/>
       <c r="S44" s="17"/>
     </row>
-    <row r="45" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="51">
-        <v>1</v>
-      </c>
-      <c r="B45" s="52"/>
-      <c r="C45" s="53">
-        <v>1</v>
-      </c>
-      <c r="D45" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="E45" s="64" t="s">
+    <row r="45" spans="1:19" ht="15" thickBot="1">
+      <c r="A45" s="41">
+        <v>1</v>
+      </c>
+      <c r="B45" s="68">
+        <v>3</v>
+      </c>
+      <c r="C45" s="43">
+        <v>1</v>
+      </c>
+      <c r="D45" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="E45" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="F45" s="53" t="s">
+      <c r="F45" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G45" s="41">
+      <c r="G45" s="31">
         <v>11132</v>
       </c>
       <c r="H45" s="15"/>
@@ -2698,14 +2724,14 @@
       <c r="R45" s="15"/>
       <c r="S45" s="17"/>
     </row>
-    <row r="46" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" ht="44" thickBot="1">
       <c r="A46" s="14"/>
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
       <c r="F46" s="15"/>
-      <c r="G46" s="40"/>
+      <c r="G46" s="30"/>
       <c r="H46" s="15">
         <v>8</v>
       </c>
@@ -2727,26 +2753,26 @@
       <c r="R46" s="15"/>
       <c r="S46" s="17"/>
     </row>
-    <row r="47" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A47" s="46">
-        <v>1</v>
-      </c>
-      <c r="B47" s="58">
-        <v>1</v>
-      </c>
-      <c r="C47" s="47">
-        <v>1</v>
-      </c>
-      <c r="D47" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="E47" s="47" t="s">
+    <row r="47" spans="1:19" ht="43.5">
+      <c r="A47" s="36">
+        <v>1</v>
+      </c>
+      <c r="B47" s="48">
+        <v>1</v>
+      </c>
+      <c r="C47" s="37">
+        <v>1</v>
+      </c>
+      <c r="D47" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="E47" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="F47" s="59" t="s">
+      <c r="F47" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="G47" s="39"/>
+      <c r="G47" s="29"/>
       <c r="H47" s="15">
         <v>9</v>
       </c>
@@ -2778,11 +2804,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19">
       <c r="A48" s="14">
         <v>5</v>
       </c>
-      <c r="B48" s="48">
+      <c r="B48" s="38">
         <v>1</v>
       </c>
       <c r="C48" s="15">
@@ -2794,10 +2820,10 @@
       <c r="E48" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="F48" s="37" t="s">
+      <c r="F48" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="G48" s="40"/>
+      <c r="G48" s="30"/>
       <c r="H48" s="15"/>
       <c r="I48" s="15"/>
       <c r="J48" s="15"/>
@@ -2811,11 +2837,11 @@
       <c r="R48" s="15"/>
       <c r="S48" s="17"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19">
       <c r="A49" s="14">
         <v>6</v>
       </c>
-      <c r="B49" s="49">
+      <c r="B49" s="39">
         <v>2</v>
       </c>
       <c r="C49" s="15">
@@ -2827,7 +2853,7 @@
       <c r="E49" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="F49" s="37" t="s">
+      <c r="F49" s="27" t="s">
         <v>82</v>
       </c>
       <c r="G49" s="17"/>
@@ -2844,11 +2870,11 @@
       <c r="R49" s="15"/>
       <c r="S49" s="17"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19">
       <c r="A50" s="14">
         <v>7</v>
       </c>
-      <c r="B50" s="49">
+      <c r="B50" s="39">
         <v>2</v>
       </c>
       <c r="C50" s="15">
@@ -2860,7 +2886,7 @@
       <c r="E50" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="F50" s="37" t="s">
+      <c r="F50" s="27" t="s">
         <v>86</v>
       </c>
       <c r="G50" s="17"/>
@@ -2877,11 +2903,11 @@
       <c r="R50" s="15"/>
       <c r="S50" s="17"/>
     </row>
-    <row r="51" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" ht="15" thickBot="1">
       <c r="A51" s="14">
         <v>8</v>
       </c>
-      <c r="B51" s="49">
+      <c r="B51" s="39">
         <v>2</v>
       </c>
       <c r="C51" s="15">
@@ -2890,10 +2916,10 @@
       <c r="D51" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="E51" s="50" t="s">
+      <c r="E51" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="F51" s="37" t="s">
+      <c r="F51" s="27" t="s">
         <v>91</v>
       </c>
       <c r="G51" s="17"/>
@@ -2910,24 +2936,26 @@
       <c r="R51" s="15"/>
       <c r="S51" s="17"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="46">
-        <v>1</v>
-      </c>
-      <c r="B52" s="58"/>
-      <c r="C52" s="47">
-        <v>1</v>
-      </c>
-      <c r="D52" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="E52" s="61" t="s">
+    <row r="52" spans="1:19">
+      <c r="A52" s="36">
+        <v>1</v>
+      </c>
+      <c r="B52" s="67">
+        <v>3</v>
+      </c>
+      <c r="C52" s="37">
+        <v>1</v>
+      </c>
+      <c r="D52" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="E52" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="F52" s="47" t="s">
+      <c r="F52" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="G52" s="38">
+      <c r="G52" s="28">
         <v>11132</v>
       </c>
       <c r="H52" s="15"/>
@@ -2943,11 +2971,13 @@
       <c r="R52" s="15"/>
       <c r="S52" s="17"/>
     </row>
-    <row r="53" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" ht="29.5" thickBot="1">
       <c r="A53" s="14">
         <v>2</v>
       </c>
-      <c r="B53" s="49"/>
+      <c r="B53" s="65">
+        <v>3</v>
+      </c>
       <c r="C53" s="15">
         <v>3</v>
       </c>
@@ -2976,14 +3006,14 @@
       <c r="R53" s="15"/>
       <c r="S53" s="17"/>
     </row>
-    <row r="54" spans="1:19" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="51"/>
-      <c r="B54" s="53"/>
-      <c r="C54" s="53"/>
-      <c r="D54" s="53"/>
-      <c r="E54" s="53"/>
-      <c r="F54" s="53"/>
-      <c r="G54" s="41"/>
+    <row r="54" spans="1:19" ht="44" thickBot="1">
+      <c r="A54" s="41"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="31"/>
       <c r="H54" s="15">
         <v>9</v>
       </c>
@@ -3005,11 +3035,11 @@
       <c r="R54" s="15"/>
       <c r="S54" s="17"/>
     </row>
-    <row r="55" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" ht="43.5">
       <c r="A55" s="14">
         <v>1</v>
       </c>
-      <c r="B55" s="48">
+      <c r="B55" s="38">
         <v>1</v>
       </c>
       <c r="C55" s="15">
@@ -3021,7 +3051,7 @@
       <c r="E55" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="F55" s="37" t="s">
+      <c r="F55" s="27" t="s">
         <v>84</v>
       </c>
       <c r="G55" s="17"/>
@@ -3056,11 +3086,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19">
       <c r="A56" s="14">
         <v>5</v>
       </c>
-      <c r="B56" s="48">
+      <c r="B56" s="38">
         <v>1</v>
       </c>
       <c r="C56" s="15">
@@ -3072,7 +3102,7 @@
       <c r="E56" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="F56" s="37" t="s">
+      <c r="F56" s="27" t="s">
         <v>80</v>
       </c>
       <c r="G56" s="17"/>
@@ -3089,11 +3119,11 @@
       <c r="R56" s="15"/>
       <c r="S56" s="17"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19">
       <c r="A57" s="14">
         <v>6</v>
       </c>
-      <c r="B57" s="49">
+      <c r="B57" s="39">
         <v>2</v>
       </c>
       <c r="C57" s="15">
@@ -3105,7 +3135,7 @@
       <c r="E57" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="F57" s="37" t="s">
+      <c r="F57" s="27" t="s">
         <v>82</v>
       </c>
       <c r="G57" s="17"/>
@@ -3122,11 +3152,11 @@
       <c r="R57" s="15"/>
       <c r="S57" s="17"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19">
       <c r="A58" s="14">
         <v>7</v>
       </c>
-      <c r="B58" s="49">
+      <c r="B58" s="39">
         <v>2</v>
       </c>
       <c r="C58" s="15">
@@ -3138,7 +3168,7 @@
       <c r="E58" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="F58" s="37" t="s">
+      <c r="F58" s="27" t="s">
         <v>86</v>
       </c>
       <c r="G58" s="17"/>
@@ -3155,11 +3185,11 @@
       <c r="R58" s="15"/>
       <c r="S58" s="17"/>
     </row>
-    <row r="59" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" ht="15" thickBot="1">
       <c r="A59" s="1">
         <v>8</v>
       </c>
-      <c r="B59" s="60">
+      <c r="B59" s="50">
         <v>2</v>
       </c>
       <c r="C59" s="2">
@@ -3168,10 +3198,10 @@
       <c r="D59" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E59" s="63" t="s">
+      <c r="E59" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="F59" s="62" t="s">
+      <c r="F59" s="52" t="s">
         <v>91</v>
       </c>
       <c r="G59" s="19"/>
@@ -3188,11 +3218,13 @@
       <c r="R59" s="15"/>
       <c r="S59" s="17"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19">
       <c r="A60" s="14">
         <v>1</v>
       </c>
-      <c r="B60" s="48"/>
+      <c r="B60" s="65">
+        <v>3</v>
+      </c>
       <c r="C60" s="15">
         <v>1</v>
       </c>
@@ -3221,11 +3253,13 @@
       <c r="R60" s="15"/>
       <c r="S60" s="17"/>
     </row>
-    <row r="61" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" ht="29.5" thickBot="1">
       <c r="A61" s="14">
         <v>2</v>
       </c>
-      <c r="B61" s="49"/>
+      <c r="B61" s="65">
+        <v>3</v>
+      </c>
       <c r="C61" s="15">
         <v>3</v>
       </c>
@@ -3254,14 +3288,14 @@
       <c r="R61" s="15"/>
       <c r="S61" s="17"/>
     </row>
-    <row r="62" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="51"/>
-      <c r="B62" s="53"/>
-      <c r="C62" s="53"/>
-      <c r="D62" s="53"/>
-      <c r="E62" s="53"/>
-      <c r="F62" s="53"/>
-      <c r="G62" s="41"/>
+    <row r="62" spans="1:19" ht="44" thickBot="1">
+      <c r="A62" s="41"/>
+      <c r="B62" s="43"/>
+      <c r="C62" s="43"/>
+      <c r="D62" s="43"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="43"/>
+      <c r="G62" s="31"/>
       <c r="H62" s="15">
         <v>10</v>
       </c>
@@ -3283,26 +3317,26 @@
       <c r="R62" s="15"/>
       <c r="S62" s="17"/>
     </row>
-    <row r="63" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A63" s="46">
-        <v>1</v>
-      </c>
-      <c r="B63" s="58">
-        <v>1</v>
-      </c>
-      <c r="C63" s="47">
-        <v>1</v>
-      </c>
-      <c r="D63" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="E63" s="47" t="s">
+    <row r="63" spans="1:19" ht="58">
+      <c r="A63" s="36">
+        <v>1</v>
+      </c>
+      <c r="B63" s="48">
+        <v>1</v>
+      </c>
+      <c r="C63" s="37">
+        <v>1</v>
+      </c>
+      <c r="D63" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="E63" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="F63" s="59" t="s">
+      <c r="F63" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="G63" s="38"/>
+      <c r="G63" s="28"/>
       <c r="H63" s="15">
         <v>11</v>
       </c>
@@ -3336,11 +3370,11 @@
       </c>
       <c r="S63" s="17"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19">
       <c r="A64" s="14">
         <v>5</v>
       </c>
-      <c r="B64" s="48">
+      <c r="B64" s="38">
         <v>1</v>
       </c>
       <c r="C64" s="15">
@@ -3352,7 +3386,7 @@
       <c r="E64" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="F64" s="37" t="s">
+      <c r="F64" s="27" t="s">
         <v>80</v>
       </c>
       <c r="G64" s="17"/>
@@ -3369,11 +3403,11 @@
       <c r="R64" s="15"/>
       <c r="S64" s="17"/>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19">
       <c r="A65" s="14">
         <v>6</v>
       </c>
-      <c r="B65" s="49">
+      <c r="B65" s="39">
         <v>2</v>
       </c>
       <c r="C65" s="15">
@@ -3385,7 +3419,7 @@
       <c r="E65" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="F65" s="37" t="s">
+      <c r="F65" s="27" t="s">
         <v>82</v>
       </c>
       <c r="G65" s="17"/>
@@ -3402,11 +3436,11 @@
       <c r="R65" s="15"/>
       <c r="S65" s="17"/>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19">
       <c r="A66" s="14">
         <v>7</v>
       </c>
-      <c r="B66" s="49">
+      <c r="B66" s="39">
         <v>2</v>
       </c>
       <c r="C66" s="15">
@@ -3418,7 +3452,7 @@
       <c r="E66" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="F66" s="37" t="s">
+      <c r="F66" s="27" t="s">
         <v>86</v>
       </c>
       <c r="G66" s="17"/>
@@ -3435,11 +3469,11 @@
       <c r="R66" s="15"/>
       <c r="S66" s="17"/>
     </row>
-    <row r="67" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" ht="15" thickBot="1">
       <c r="A67" s="1">
         <v>8</v>
       </c>
-      <c r="B67" s="60">
+      <c r="B67" s="50">
         <v>2</v>
       </c>
       <c r="C67" s="2">
@@ -3448,10 +3482,10 @@
       <c r="D67" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E67" s="63" t="s">
+      <c r="E67" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="F67" s="62" t="s">
+      <c r="F67" s="52" t="s">
         <v>91</v>
       </c>
       <c r="G67" s="19"/>
@@ -3468,11 +3502,13 @@
       <c r="R67" s="15"/>
       <c r="S67" s="17"/>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19">
       <c r="A68" s="14">
         <v>1</v>
       </c>
-      <c r="B68" s="48"/>
+      <c r="B68" s="65">
+        <v>3</v>
+      </c>
       <c r="C68" s="15">
         <v>1</v>
       </c>
@@ -3498,11 +3534,13 @@
       <c r="R68" s="15"/>
       <c r="S68" s="17"/>
     </row>
-    <row r="69" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" ht="29.5" thickBot="1">
       <c r="A69" s="14">
         <v>2</v>
       </c>
-      <c r="B69" s="49"/>
+      <c r="B69" s="65">
+        <v>3</v>
+      </c>
       <c r="C69" s="15">
         <v>3</v>
       </c>
@@ -3528,14 +3566,14 @@
       <c r="R69" s="15"/>
       <c r="S69" s="17"/>
     </row>
-    <row r="70" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="51"/>
-      <c r="B70" s="53"/>
-      <c r="C70" s="53"/>
-      <c r="D70" s="53"/>
-      <c r="E70" s="53"/>
-      <c r="F70" s="53"/>
-      <c r="G70" s="41"/>
+    <row r="70" spans="1:19" ht="44" thickBot="1">
+      <c r="A70" s="41"/>
+      <c r="B70" s="43"/>
+      <c r="C70" s="43"/>
+      <c r="D70" s="43"/>
+      <c r="E70" s="43"/>
+      <c r="F70" s="43"/>
+      <c r="G70" s="31"/>
       <c r="H70" s="15">
         <v>11</v>
       </c>
@@ -3554,11 +3592,11 @@
       <c r="R70" s="15"/>
       <c r="S70" s="17"/>
     </row>
-    <row r="71" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" ht="29">
       <c r="A71" s="14">
         <v>1</v>
       </c>
-      <c r="B71" s="48">
+      <c r="B71" s="38">
         <v>1</v>
       </c>
       <c r="C71" s="15">
@@ -3570,7 +3608,7 @@
       <c r="E71" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="F71" s="37" t="s">
+      <c r="F71" s="27" t="s">
         <v>84</v>
       </c>
       <c r="G71" s="17"/>
@@ -3600,11 +3638,11 @@
       </c>
       <c r="S71" s="17"/>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19">
       <c r="A72" s="14">
         <v>5</v>
       </c>
-      <c r="B72" s="48">
+      <c r="B72" s="38">
         <v>1</v>
       </c>
       <c r="C72" s="15">
@@ -3616,7 +3654,7 @@
       <c r="E72" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="F72" s="37" t="s">
+      <c r="F72" s="27" t="s">
         <v>80</v>
       </c>
       <c r="G72" s="17"/>
@@ -3630,11 +3668,11 @@
       <c r="R72" s="15"/>
       <c r="S72" s="17"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19">
       <c r="A73" s="14">
         <v>6</v>
       </c>
-      <c r="B73" s="49">
+      <c r="B73" s="39">
         <v>2</v>
       </c>
       <c r="C73" s="15">
@@ -3646,7 +3684,7 @@
       <c r="E73" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="F73" s="37" t="s">
+      <c r="F73" s="27" t="s">
         <v>82</v>
       </c>
       <c r="G73" s="17"/>
@@ -3660,11 +3698,11 @@
       <c r="R73" s="15"/>
       <c r="S73" s="17"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19">
       <c r="A74" s="14">
         <v>7</v>
       </c>
-      <c r="B74" s="49">
+      <c r="B74" s="39">
         <v>2</v>
       </c>
       <c r="C74" s="15">
@@ -3676,7 +3714,7 @@
       <c r="E74" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="F74" s="37" t="s">
+      <c r="F74" s="27" t="s">
         <v>86</v>
       </c>
       <c r="G74" s="17"/>
@@ -3690,11 +3728,11 @@
       <c r="R74" s="15"/>
       <c r="S74" s="17"/>
     </row>
-    <row r="75" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" ht="15" thickBot="1">
       <c r="A75" s="1">
         <v>8</v>
       </c>
-      <c r="B75" s="60">
+      <c r="B75" s="50">
         <v>2</v>
       </c>
       <c r="C75" s="2">
@@ -3703,10 +3741,10 @@
       <c r="D75" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E75" s="63" t="s">
+      <c r="E75" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="F75" s="62" t="s">
+      <c r="F75" s="52" t="s">
         <v>91</v>
       </c>
       <c r="G75" s="19"/>
@@ -3720,11 +3758,13 @@
       <c r="R75" s="15"/>
       <c r="S75" s="17"/>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19">
       <c r="A76" s="14">
         <v>1</v>
       </c>
-      <c r="B76" s="48"/>
+      <c r="B76" s="65">
+        <v>3</v>
+      </c>
       <c r="C76" s="15">
         <v>1</v>
       </c>
@@ -3750,11 +3790,13 @@
       <c r="R76" s="15"/>
       <c r="S76" s="17"/>
     </row>
-    <row r="77" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" ht="29.5" thickBot="1">
       <c r="A77" s="1">
         <v>2</v>
       </c>
-      <c r="B77" s="60"/>
+      <c r="B77" s="66">
+        <v>3</v>
+      </c>
       <c r="C77" s="2">
         <v>3</v>
       </c>
@@ -3780,7 +3822,7 @@
       <c r="R77" s="15"/>
       <c r="S77" s="17"/>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19">
       <c r="A78" s="14"/>
       <c r="B78" s="15"/>
       <c r="C78" s="15"/>
@@ -3806,7 +3848,7 @@
       <c r="R78" s="15"/>
       <c r="S78" s="17"/>
     </row>
-    <row r="79" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" ht="29">
       <c r="A79" s="14"/>
       <c r="B79" s="15"/>
       <c r="C79" s="15"/>
@@ -3832,7 +3874,7 @@
       <c r="R79" s="15"/>
       <c r="S79" s="17"/>
     </row>
-    <row r="80" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" ht="29.5" thickBot="1">
       <c r="A80" s="14"/>
       <c r="B80" s="15"/>
       <c r="C80" s="15"/>
@@ -3858,26 +3900,26 @@
       <c r="R80" s="15"/>
       <c r="S80" s="17"/>
     </row>
-    <row r="81" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="51">
-        <v>1</v>
-      </c>
-      <c r="B81" s="52">
-        <v>1</v>
-      </c>
-      <c r="C81" s="53">
-        <v>1</v>
-      </c>
-      <c r="D81" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="E81" s="53" t="s">
+    <row r="81" spans="1:19" ht="29.5" thickBot="1">
+      <c r="A81" s="41">
+        <v>1</v>
+      </c>
+      <c r="B81" s="42">
+        <v>1</v>
+      </c>
+      <c r="C81" s="43">
+        <v>1</v>
+      </c>
+      <c r="D81" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="E81" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="F81" s="54" t="s">
+      <c r="F81" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="G81" s="43"/>
+      <c r="G81" s="33"/>
       <c r="H81" s="15">
         <v>13</v>
       </c>
@@ -3906,26 +3948,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="51">
+    <row r="82" spans="1:19" ht="15" thickBot="1">
+      <c r="A82" s="41">
         <v>4</v>
       </c>
-      <c r="B82" s="55">
+      <c r="B82" s="45">
         <v>2</v>
       </c>
-      <c r="C82" s="53">
-        <v>1</v>
-      </c>
-      <c r="D82" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="E82" s="56" t="s">
+      <c r="C82" s="43">
+        <v>1</v>
+      </c>
+      <c r="D82" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="E82" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="F82" s="57" t="s">
+      <c r="F82" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="G82" s="45">
+      <c r="G82" s="35">
         <v>12140</v>
       </c>
       <c r="H82" s="15"/>
@@ -3938,26 +3980,26 @@
       <c r="R82" s="15"/>
       <c r="S82" s="17"/>
     </row>
-    <row r="83" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="51">
+    <row r="83" spans="1:19" ht="15" thickBot="1">
+      <c r="A83" s="41">
         <v>5</v>
       </c>
-      <c r="B83" s="52">
-        <v>1</v>
-      </c>
-      <c r="C83" s="53">
-        <v>1</v>
-      </c>
-      <c r="D83" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="E83" s="53" t="s">
+      <c r="B83" s="42">
+        <v>1</v>
+      </c>
+      <c r="C83" s="43">
+        <v>1</v>
+      </c>
+      <c r="D83" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="E83" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="F83" s="54" t="s">
+      <c r="F83" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="G83" s="43"/>
+      <c r="G83" s="33"/>
       <c r="H83" s="15"/>
       <c r="I83" s="15"/>
       <c r="J83" s="15"/>
@@ -3968,7 +4010,7 @@
       <c r="R83" s="15"/>
       <c r="S83" s="17"/>
     </row>
-    <row r="84" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" ht="29">
       <c r="A84" s="14"/>
       <c r="B84" s="15"/>
       <c r="C84" s="15"/>
@@ -3994,7 +4036,7 @@
       <c r="R84" s="15"/>
       <c r="S84" s="17"/>
     </row>
-    <row r="85" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" ht="29">
       <c r="A85" s="14"/>
       <c r="B85" s="15"/>
       <c r="C85" s="15"/>
@@ -4020,7 +4062,7 @@
       <c r="R85" s="15"/>
       <c r="S85" s="17"/>
     </row>
-    <row r="86" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" ht="29">
       <c r="A86" s="14"/>
       <c r="B86" s="15"/>
       <c r="C86" s="15"/>
@@ -4046,7 +4088,7 @@
       <c r="R86" s="15"/>
       <c r="S86" s="17"/>
     </row>
-    <row r="87" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" ht="29">
       <c r="A87" s="14"/>
       <c r="B87" s="15"/>
       <c r="C87" s="15"/>
@@ -4072,7 +4114,7 @@
       <c r="R87" s="15"/>
       <c r="S87" s="17"/>
     </row>
-    <row r="88" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" ht="29">
       <c r="A88" s="14"/>
       <c r="B88" s="15"/>
       <c r="C88" s="15"/>
@@ -4098,7 +4140,7 @@
       <c r="R88" s="15"/>
       <c r="S88" s="17"/>
     </row>
-    <row r="89" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" ht="29">
       <c r="A89" s="14"/>
       <c r="B89" s="15"/>
       <c r="C89" s="15"/>
@@ -4124,7 +4166,7 @@
       <c r="R89" s="15"/>
       <c r="S89" s="17"/>
     </row>
-    <row r="90" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" ht="29">
       <c r="A90" s="14"/>
       <c r="B90" s="15"/>
       <c r="C90" s="15"/>
@@ -4150,7 +4192,7 @@
       <c r="R90" s="15"/>
       <c r="S90" s="17"/>
     </row>
-    <row r="91" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" ht="29">
       <c r="A91" s="14"/>
       <c r="B91" s="15"/>
       <c r="C91" s="15"/>
@@ -4176,14 +4218,14 @@
       <c r="R91" s="15"/>
       <c r="S91" s="17"/>
     </row>
-    <row r="92" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" ht="29">
       <c r="A92" s="14"/>
       <c r="B92" s="15"/>
       <c r="C92" s="15"/>
       <c r="D92" s="15"/>
       <c r="E92" s="15"/>
       <c r="F92" s="15"/>
-      <c r="G92" s="40"/>
+      <c r="G92" s="30"/>
       <c r="H92" s="15">
         <v>13</v>
       </c>
@@ -4202,14 +4244,14 @@
       <c r="R92" s="15"/>
       <c r="S92" s="17"/>
     </row>
-    <row r="93" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" ht="43.5">
       <c r="A93" s="14"/>
       <c r="B93" s="15"/>
       <c r="C93" s="15"/>
       <c r="D93" s="15"/>
       <c r="E93" s="15"/>
       <c r="F93" s="15"/>
-      <c r="G93" s="44"/>
+      <c r="G93" s="34"/>
       <c r="H93" s="15">
         <v>14</v>
       </c>
@@ -4228,14 +4270,14 @@
       <c r="R93" s="15"/>
       <c r="S93" s="17"/>
     </row>
-    <row r="94" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" ht="44" thickBot="1">
       <c r="A94" s="14"/>
       <c r="B94" s="15"/>
       <c r="C94" s="15"/>
       <c r="D94" s="15"/>
       <c r="E94" s="15"/>
       <c r="F94" s="15"/>
-      <c r="G94" s="40"/>
+      <c r="G94" s="30"/>
       <c r="H94" s="15">
         <v>14</v>
       </c>
@@ -4254,26 +4296,26 @@
       <c r="R94" s="15"/>
       <c r="S94" s="17"/>
     </row>
-    <row r="95" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="51">
-        <v>1</v>
-      </c>
-      <c r="B95" s="52">
-        <v>1</v>
-      </c>
-      <c r="C95" s="53">
-        <v>1</v>
-      </c>
-      <c r="D95" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="E95" s="53" t="s">
+    <row r="95" spans="1:19" ht="44" thickBot="1">
+      <c r="A95" s="41">
+        <v>1</v>
+      </c>
+      <c r="B95" s="42">
+        <v>1</v>
+      </c>
+      <c r="C95" s="43">
+        <v>1</v>
+      </c>
+      <c r="D95" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="E95" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="F95" s="54" t="s">
+      <c r="F95" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="G95" s="43"/>
+      <c r="G95" s="33"/>
       <c r="H95" s="15">
         <v>14</v>
       </c>
@@ -4302,26 +4344,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="51">
+    <row r="96" spans="1:19" ht="15" thickBot="1">
+      <c r="A96" s="41">
         <v>4</v>
       </c>
-      <c r="B96" s="55">
+      <c r="B96" s="45">
         <v>2</v>
       </c>
-      <c r="C96" s="53">
-        <v>1</v>
-      </c>
-      <c r="D96" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="E96" s="56" t="s">
+      <c r="C96" s="43">
+        <v>1</v>
+      </c>
+      <c r="D96" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="E96" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="F96" s="57" t="s">
+      <c r="F96" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="G96" s="45">
+      <c r="G96" s="35">
         <v>12140</v>
       </c>
       <c r="H96" s="15"/>
@@ -4334,26 +4376,26 @@
       <c r="R96" s="15"/>
       <c r="S96" s="17"/>
     </row>
-    <row r="97" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="51">
+    <row r="97" spans="1:19" ht="15" thickBot="1">
+      <c r="A97" s="41">
         <v>5</v>
       </c>
-      <c r="B97" s="52">
-        <v>1</v>
-      </c>
-      <c r="C97" s="53">
-        <v>1</v>
-      </c>
-      <c r="D97" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="E97" s="53" t="s">
+      <c r="B97" s="42">
+        <v>1</v>
+      </c>
+      <c r="C97" s="43">
+        <v>1</v>
+      </c>
+      <c r="D97" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="E97" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="F97" s="54" t="s">
+      <c r="F97" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="G97" s="43"/>
+      <c r="G97" s="33"/>
       <c r="H97" s="15"/>
       <c r="I97" s="15"/>
       <c r="J97" s="15"/>
@@ -4364,7 +4406,7 @@
       <c r="R97" s="15"/>
       <c r="S97" s="17"/>
     </row>
-    <row r="98" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" ht="43.5">
       <c r="A98" s="14"/>
       <c r="B98" s="15"/>
       <c r="C98" s="15"/>
@@ -4390,7 +4432,7 @@
       <c r="R98" s="15"/>
       <c r="S98" s="17"/>
     </row>
-    <row r="99" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" ht="43.5">
       <c r="A99" s="14"/>
       <c r="B99" s="15"/>
       <c r="C99" s="15"/>
@@ -4416,7 +4458,7 @@
       <c r="R99" s="15"/>
       <c r="S99" s="17"/>
     </row>
-    <row r="100" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" ht="43.5">
       <c r="A100" s="14"/>
       <c r="B100" s="15"/>
       <c r="C100" s="15"/>
@@ -4442,7 +4484,7 @@
       <c r="R100" s="15"/>
       <c r="S100" s="17"/>
     </row>
-    <row r="101" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" ht="43.5">
       <c r="A101" s="14"/>
       <c r="B101" s="15"/>
       <c r="C101" s="15"/>
@@ -4468,7 +4510,7 @@
       <c r="R101" s="15"/>
       <c r="S101" s="17"/>
     </row>
-    <row r="102" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" ht="43.5">
       <c r="A102" s="14"/>
       <c r="B102" s="15"/>
       <c r="C102" s="15"/>
@@ -4494,7 +4536,7 @@
       <c r="R102" s="15"/>
       <c r="S102" s="17"/>
     </row>
-    <row r="103" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" ht="43.5">
       <c r="A103" s="14"/>
       <c r="B103" s="15"/>
       <c r="C103" s="15"/>
@@ -4520,7 +4562,7 @@
       <c r="R103" s="15"/>
       <c r="S103" s="17"/>
     </row>
-    <row r="104" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" ht="43.5">
       <c r="A104" s="14"/>
       <c r="B104" s="15"/>
       <c r="C104" s="15"/>
@@ -4546,7 +4588,7 @@
       <c r="R104" s="15"/>
       <c r="S104" s="17"/>
     </row>
-    <row r="105" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" ht="43.5">
       <c r="A105" s="14"/>
       <c r="B105" s="15"/>
       <c r="C105" s="15"/>
@@ -4572,7 +4614,7 @@
       <c r="R105" s="15"/>
       <c r="S105" s="17"/>
     </row>
-    <row r="106" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" ht="43.5">
       <c r="A106" s="14"/>
       <c r="B106" s="15"/>
       <c r="C106" s="15"/>
@@ -4598,7 +4640,7 @@
       <c r="R106" s="15"/>
       <c r="S106" s="17"/>
     </row>
-    <row r="107" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:19" ht="44" thickBot="1">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
